--- a/biology/Botanique/Tillandsia_kuntzeana/Tillandsia_kuntzeana.xlsx
+++ b/biology/Botanique/Tillandsia_kuntzeana/Tillandsia_kuntzeana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia kuntzeana Mez est une plante de la famille des Bromeliaceae.
 L'épithète kuntzeana est une dédicace au botaniste Kuntze, collecteur de la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia kuntzeana Mez in C.DC., Monogr. Phan. 9: 790, n° 148 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « statura conspicua ; foliis rosulatis, utrinque dense lepidibus pallidis adpressis obtectis ; vaginis scapalibus superioribus saltem haud foliaceis; inflorescentia bipinnatim panniculata[sic] ; spicis flabellatis, parum complanatis, ad 8-floris, sessilibus, bracteas primarias longe superantibus ; bracteis florigeris acute carinatis, quam sepala bene longioribus ; floribus erectis; sepalis antico libero, posticis inter sese ultra 1/3 connatis. »
-Type : leg. C.E.0. Kuntze ; « Bolivia, prope Tunari, alt. 1300 m. » ; Herb. Kuntze[1].
+Type : leg. C.E.0. Kuntze ; « Bolivia, prope Tunari, alt. 1300 m. » ; Herb. Kuntze.
 Deux exemplaires de l'herbier de Kuntze, conservés dans l'herbier du New York Botanical Garden (NY), correspondent à cette désignation de type. N'étant pas numérotés et leur étiquetage étant identique, on ne peut donc déterminer lequel doit être considéré comme l'holotype, une lectotypification serait nécessaire :
 leg. C.E.O. Kuntze, s.n., 1892-05-04 ; "Bolivien 1300 m Tunari" ; Typus NY (NY 247346)
 leg. C.E.O. Kuntze, s.n., 1892-05-04 ; "Bolivien 1300 m Tunari" ; Typus NY (NY 247347)</t>
@@ -548,7 +562,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,11 +622,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Typologie : plante herbacée en rosette acaule monocarpique vivace par ses rejets latéraux.
 Habitat : ?
-Altitude : 1300 m[1].</t>
+Altitude : 1300 m.</t>
         </is>
       </c>
     </row>
@@ -636,10 +656,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Bolivie[1],[2]</t>
+ Bolivie,</t>
         </is>
       </c>
     </row>
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
